--- a/data/trans_dic/P9_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P9_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee ordenador/ portátil en su vivienda actual</t>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>89,2%</t>
+          <t>89,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>91,06%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,09; 94,67</t>
+          <t>85,37; 94,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,15; 96,39</t>
+          <t>87,17; 96,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,39; 90,4</t>
+          <t>78,6; 89,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,81; 93,52</t>
+          <t>83,56; 93,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,07; 91,35</t>
+          <t>84,43; 91,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,64; 93,71</t>
+          <t>86,71; 94,08</t>
         </is>
       </c>
     </row>
@@ -681,12 +682,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>78,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>86,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,17 +697,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>77,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>78,2%</t>
+          <t>78,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>82,19%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,53; 85,1</t>
+          <t>67,43; 85,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,92; 91,64</t>
+          <t>73,71; 92,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,83; 83,57</t>
+          <t>71,06; 83,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,05; 83,65</t>
+          <t>70,29; 83,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,25; 82,66</t>
+          <t>72,98; 82,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,82; 86,3</t>
+          <t>75,34; 86,55</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82,46%</t>
+          <t>81,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88,41%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>84,84%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,92; 89,22</t>
+          <t>78,2; 89,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,91; 88,5</t>
+          <t>71,76; 87,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,75; 89,46</t>
+          <t>81,54; 89,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,73; 91,71</t>
+          <t>83,8; 92,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,58; 88,35</t>
+          <t>81,58; 88,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,96; 88,84</t>
+          <t>79,69; 88,36</t>
         </is>
       </c>
     </row>
@@ -846,17 +847,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>81,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,91%</t>
+          <t>80,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>83,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>82,58%</t>
+          <t>82,49%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,05; 86,85</t>
+          <t>78,04; 86,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,04; 86,23</t>
+          <t>74,68; 86,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,81; 84,79</t>
+          <t>76,43; 84,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>78,76; 87,9</t>
+          <t>78,28; 87,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,17; 84,62</t>
+          <t>78,71; 84,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,88; 85,73</t>
+          <t>78,44; 85,69</t>
         </is>
       </c>
     </row>
@@ -921,12 +922,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>66,6%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>73,86%</t>
+          <t>73,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +937,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>64,4%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>69,22%</t>
+          <t>68,74%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,96; 73,36</t>
+          <t>59,42; 73,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,49; 79,6</t>
+          <t>66,8; 79,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,98; 67,68</t>
+          <t>54,42; 67,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57,74; 71,31</t>
+          <t>58,34; 71,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,81; 68,26</t>
+          <t>58,96; 68,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,4; 73,71</t>
+          <t>64,34; 73,16</t>
         </is>
       </c>
     </row>
@@ -1001,22 +1002,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>52,92%</t>
+          <t>54,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>46,6%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,6; 57,54</t>
+          <t>42,27; 56,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,36; 61,34</t>
+          <t>46,44; 62,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,88; 43,9</t>
+          <t>32,2; 44,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,5; 46,37</t>
+          <t>33,69; 47,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,07; 46,6</t>
+          <t>37,37; 46,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,41; 51,37</t>
+          <t>41,15; 52,02</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>78,34%</t>
+          <t>78,4%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>73,15%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>75,71%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,92; 78,49</t>
+          <t>73,25; 78,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,22; 81,24</t>
+          <t>75,33; 81,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68,17; 72,83</t>
+          <t>67,97; 72,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>70,51; 75,5</t>
+          <t>70,45; 75,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>71,28; 74,76</t>
+          <t>71,23; 74,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>73,48; 77,52</t>
+          <t>73,7; 77,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>465154</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>463897</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>393655</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>420143</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>858809</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>884041</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>437903; 486247</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>437658; 482181</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>363811; 415995</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>391713; 439405</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>823938; 890639</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>841831; 913355</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>441387</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>493468</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>404881</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>404331</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>846268</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>897798</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>379895; 479335</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>422555; 528980</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>368715; 430916</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>364870; 435490</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>789815; 895329</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>823003; 945379</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>507.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>435.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>572552</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>556760</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>595848</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>629975</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1168399</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1186735</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>528550; 606468</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>492539; 597745</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>566060; 618507</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>597020; 655827</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1117710; 1210858</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1114782; 1235976</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>530.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>471.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>528344</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>529104</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>569048</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>570365</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1097393</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1099471</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>498277; 553216</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>483359; 560692</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>537526; 594334</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>536730; 598305</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1056008; 1139152</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1045529; 1142160</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>340983</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>362592</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>308899</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>327853</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>649883</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>690445</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>304191; 375016</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>330870; 392588</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>273398; 337495</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>296994; 363809</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>598032; 694382</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>646239; 734777</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>268619</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>298478</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>274392</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>543011</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>588489</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>231168; 308981</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>253192; 341613</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>235445; 322769</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>241825; 340831</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>477620; 597557</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>519654; 656979</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1034.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>914.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1148.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1018.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2182.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1932.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2617039</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2704300</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2546723</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2642679</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5163761</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5346979</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2526817; 2715501</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2598599; 2797278</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2455608; 2626937</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2545270; 2733584</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5030255; 5283523</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5205083; 5480471</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>